--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -1,103 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F93A8-93F9-4FDD-B647-05FE8BA4B6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D6C05-FB9C-4006-97F6-350EC7DE73EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시간</t>
   </si>
   <si>
     <t>글내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좋아요수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과목명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박병현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-11-19-01-37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-11-19-01-38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>글제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종강이 다가옵니다 너무나 아쉬울 따름입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이썬프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 너무 좋아요 ^^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 홍길동 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목이 곧 내용입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -115,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,18 +89,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -147,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,27 +205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,24 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,112 +415,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D6C05-FB9C-4006-97F6-350EC7DE73EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>작성시간</t>
-  </si>
-  <si>
-    <t>글내용</t>
-  </si>
-  <si>
-    <t>좋아요수</t>
-  </si>
-  <si>
-    <t>평점</t>
-  </si>
-  <si>
-    <t>과목명</t>
-  </si>
-  <si>
-    <t>글제목</t>
-  </si>
-  <si>
-    <t>댓글</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -109,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,44 +421,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>작성자</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>작성시간</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>글내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>좋아요수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>평점</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>과목명</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>글제목</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>댓글</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>아이디</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>박병현</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020/11/21 20:16:53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>제목이 곧 내용입니다.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>파이썬 프로그래밍</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>슬슬 성공이 보입니다</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ranysoda</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -1,37 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D837A384-629C-46AA-AFCD-F91D203B2B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>작성시간</t>
+  </si>
+  <si>
+    <t>글내용</t>
+  </si>
+  <si>
+    <t>좋아요수</t>
+  </si>
+  <si>
+    <t>평점</t>
+  </si>
+  <si>
+    <t>과목명</t>
+  </si>
+  <si>
+    <t>글제목</t>
+  </si>
+  <si>
+    <t>댓글</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>교수님성함</t>
+  </si>
+  <si>
+    <t>박병현</t>
+  </si>
+  <si>
+    <t>2020/11/23 15:24:08</t>
+  </si>
+  <si>
+    <t>솔직히 많이 어렵지만 살면서 도움이 많이될 강의였습니다.</t>
+  </si>
+  <si>
+    <t>컴퓨터시스템</t>
+  </si>
+  <si>
+    <t>컴퓨터 시스템 강의평입니다.</t>
+  </si>
+  <si>
+    <t>USER1 : GOOOD		2020/11/23 17:41:35
+USER1 : DASDASD		2020/11/23 17:42:23</t>
+  </si>
+  <si>
+    <t>ranysoda</t>
+  </si>
+  <si>
+    <t>송윤석</t>
+  </si>
+  <si>
+    <t>2020/11/23 15:25:07</t>
+  </si>
+  <si>
+    <t>현시점 가장 많이 쓰이는 프로그래밍 언어라 배워두면 나중에 도움될거같아요.</t>
+  </si>
+  <si>
+    <t>융합프로그래밍1</t>
+  </si>
+  <si>
+    <t>자바배워보실분 좋아요</t>
+  </si>
+  <si>
+    <t>한웅진</t>
+  </si>
+  <si>
+    <t>USER1 : 자바어려워요		2020/11/23 17:49:07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +140,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +159,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,106 +464,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>작성자</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>작성시간</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>글내용</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>좋아요수</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>평점</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>과목명</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>글제목</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>댓글</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>아이디</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>박병현</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2020/11/21 20:16:53</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>제목이 곧 내용입니다.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>파이썬 프로그래밍</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>슬슬 성공이 보입니다</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ranysoda</t>
-        </is>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D837A384-629C-46AA-AFCD-F91D203B2B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98528D-BF44-428D-8066-E165E47B6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">

--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -1,131 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98528D-BF44-428D-8066-E165E47B6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>작성시간</t>
-  </si>
-  <si>
-    <t>글내용</t>
-  </si>
-  <si>
-    <t>좋아요수</t>
-  </si>
-  <si>
-    <t>평점</t>
-  </si>
-  <si>
-    <t>과목명</t>
-  </si>
-  <si>
-    <t>글제목</t>
-  </si>
-  <si>
-    <t>댓글</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>교수님성함</t>
-  </si>
-  <si>
-    <t>박병현</t>
-  </si>
-  <si>
-    <t>2020/11/23 15:24:08</t>
-  </si>
-  <si>
-    <t>솔직히 많이 어렵지만 살면서 도움이 많이될 강의였습니다.</t>
-  </si>
-  <si>
-    <t>컴퓨터시스템</t>
-  </si>
-  <si>
-    <t>컴퓨터 시스템 강의평입니다.</t>
-  </si>
-  <si>
-    <t>USER1 : GOOOD		2020/11/23 17:41:35
-USER1 : DASDASD		2020/11/23 17:42:23</t>
-  </si>
-  <si>
-    <t>ranysoda</t>
-  </si>
-  <si>
-    <t>송윤석</t>
-  </si>
-  <si>
-    <t>2020/11/23 15:25:07</t>
-  </si>
-  <si>
-    <t>현시점 가장 많이 쓰이는 프로그래밍 언어라 배워두면 나중에 도움될거같아요.</t>
-  </si>
-  <si>
-    <t>융합프로그래밍1</t>
-  </si>
-  <si>
-    <t>자바배워보실분 좋아요</t>
-  </si>
-  <si>
-    <t>한웅진</t>
-  </si>
-  <si>
-    <t>USER1 : 자바어려워요		2020/11/23 17:49:07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -159,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,116 +421,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>작성자</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>작성시간</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>글내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>좋아요수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>평점</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>과목명</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>글제목</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>댓글</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>아이디</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>교수님성함</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>박병현</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020/11/24 23:48:38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>솔직히 어렵긴하지만 계쏙 복습하시다보면 조금씩 이해가됩니다.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>컴퓨터시스템</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>컴퓨터에 알고싶으신분 강추합니다</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ranysoda</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>교수님성함</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>좋아요아이디</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,7 +523,12 @@
           <t>컴퓨터에 알고싶으신분 강추합니다</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan
+USER1 : 컴퓨터 저도 좋아합니다 꼭들어야겠어요 !		2020/11/25 23:11:49</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>ranysoda</t>
@@ -527,6 +537,401 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>USER1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:26:28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>다들 그렇다고 해주세요 ㅠㅜ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>컴퓨터시스템</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>컴퓨터 시스템 저만 어렵나요??</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan
+박병현 : 저도 여려워요.........		2020/11/25 23:56:48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USER1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:27:07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>교수님 정말 제 생각을 말한 겁니다...</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>파이썬프로그래밍</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>파이썬 프로그래밍 너무 유익해요</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ranysoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>USER2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:31:11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>프로그래밍 처음인데 솔직히 어려워요...</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>파이썬프로그래밍</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>파이썬 프로그래밍 전 어려운걸요...</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan
+박병현 : 파이썬 어려우면 백준으로 연습해보세요 !		2020/11/25 23:48:33</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>user2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ranysoda user1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>USER2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:31:51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>제목이 곧 내용입니다.</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>컴퓨터시스템</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>이건 진짜 배우면 나중에 컴퓨터를 이해할때 도움될거같음</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>user2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USER1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:34:27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>강의력도 좋으시고 굉장히 친절하십니다.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>융합프로그래밍1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>자바 언젠간 꼭해야합니다!</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>한웅진</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>USER2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:35:21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>쓸말이 없어서 무리수좀 두었습니다 죄송합니다 강의는 추천합니다.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>융합프로그래밍1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>자바 꼭 자바!</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>user2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>한웅진</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>박병현</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:42:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>파이썬의 전문가이십니다. 꼭들으세요</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>파이썬프로그래밍</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>인생파이썬강의 입니다.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ranysoda</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>송윤석</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>박병현</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020/11/25 23:42:54</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">자바 잘가르키십니다 </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>융합프로그래밍1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>취업하려면 자바도 해야겠죠..?</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ranysoda</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>한웅진</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>user2</t>
         </is>
       </c>
     </row>

--- a/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/timeline.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Atom\PythonProgramming\2016112568_ParkByeogHyeon\CH11FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECEA769-F9C4-4A2C-A5CE-888B5BB4822F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F627A1-6347-4738-831A-24BD9BC4F15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>작성자</t>
   </si>
@@ -58,130 +58,134 @@
     <t>박병현</t>
   </si>
   <si>
+    <t>USER1</t>
+  </si>
+  <si>
+    <t>USER2</t>
+  </si>
+  <si>
     <t>2020/11/24 23:48:38</t>
   </si>
   <si>
+    <t>2020/11/25 23:26:28</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:27:07</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:31:11</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:31:51</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:34:27</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:35:21</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:42:00</t>
+  </si>
+  <si>
+    <t>2020/11/25 23:42:54</t>
+  </si>
+  <si>
     <t>솔직히 어렵긴하지만 계쏙 복습하시다보면 조금씩 이해가됩니다.</t>
   </si>
   <si>
+    <t>다들 그렇다고 해주세요 ㅠㅜ</t>
+  </si>
+  <si>
+    <t>교수님 정말 제 생각을 말한 겁니다...</t>
+  </si>
+  <si>
+    <t>프로그래밍 처음인데 솔직히 어려워요...</t>
+  </si>
+  <si>
+    <t>제목이 곧 내용입니다.</t>
+  </si>
+  <si>
+    <t>강의력도 좋으시고 굉장히 친절하십니다.</t>
+  </si>
+  <si>
+    <t>쓸말이 없어서 무리수좀 두었습니다 죄송합니다 강의는 추천합니다.</t>
+  </si>
+  <si>
+    <t>파이썬의 전문가이십니다. 꼭들으세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자바 잘가르키십니다 </t>
+  </si>
+  <si>
     <t>컴퓨터시스템</t>
   </si>
   <si>
+    <t>파이썬프로그래밍</t>
+  </si>
+  <si>
+    <t>융합프로그래밍1</t>
+  </si>
+  <si>
     <t>컴퓨터에 알고싶으신분 강추합니다</t>
+  </si>
+  <si>
+    <t>컴퓨터 시스템 저만 어렵나요??</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 너무 유익해요</t>
+  </si>
+  <si>
+    <t>파이썬 프로그래밍 전 어려운걸요...</t>
+  </si>
+  <si>
+    <t>이건 진짜 배우면 나중에 컴퓨터를 이해할때 도움될거같음</t>
+  </si>
+  <si>
+    <t>자바 언젠간 꼭해야합니다!</t>
+  </si>
+  <si>
+    <t>자바 꼭 자바!</t>
+  </si>
+  <si>
+    <t>인생파이썬강의 입니다.</t>
+  </si>
+  <si>
+    <t>취업하려면 자바도 해야겠죠..?</t>
   </si>
   <si>
     <t>nan
 USER1 : 컴퓨터 저도 좋아합니다 꼭들어야겠어요 !		2020/11/25 23:11:49</t>
   </si>
   <si>
-    <t>ranysoda</t>
-  </si>
-  <si>
-    <t>송윤석</t>
-  </si>
-  <si>
-    <t>USER1</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:26:28</t>
-  </si>
-  <si>
-    <t>다들 그렇다고 해주세요 ㅠㅜ</t>
-  </si>
-  <si>
-    <t>컴퓨터 시스템 저만 어렵나요??</t>
-  </si>
-  <si>
     <t>nan
-박병현 : 저도 여려워요.........		2020/11/25 23:56:48</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:27:07</t>
-  </si>
-  <si>
-    <t>교수님 정말 제 생각을 말한 겁니다...</t>
-  </si>
-  <si>
-    <t>파이썬프로그래밍</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 너무 유익해요</t>
-  </si>
-  <si>
-    <t>USER2</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:31:11</t>
-  </si>
-  <si>
-    <t>프로그래밍 처음인데 솔직히 어려워요...</t>
-  </si>
-  <si>
-    <t>파이썬 프로그래밍 전 어려운걸요...</t>
+박병현 : 저도 여려워요.........		2020/11/25 23:56:48
+박병현 : 저도 어려워요 !		2020/11/30 16:51:37</t>
   </si>
   <si>
     <t>nan
 박병현 : 파이썬 어려우면 백준으로 연습해보세요 !		2020/11/25 23:48:33</t>
   </si>
   <si>
+    <t>ranysoda</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
     <t>user2</t>
   </si>
   <si>
+    <t>송윤석</t>
+  </si>
+  <si>
+    <t>한웅진</t>
+  </si>
+  <si>
     <t>ranysoda user1</t>
   </si>
   <si>
-    <t>2020/11/25 23:31:51</t>
-  </si>
-  <si>
-    <t>제목이 곧 내용입니다.</t>
-  </si>
-  <si>
-    <t>이건 진짜 배우면 나중에 컴퓨터를 이해할때 도움될거같음</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:34:27</t>
-  </si>
-  <si>
-    <t>강의력도 좋으시고 굉장히 친절하십니다.</t>
-  </si>
-  <si>
-    <t>융합프로그래밍1</t>
-  </si>
-  <si>
-    <t>자바 언젠간 꼭해야합니다!</t>
-  </si>
-  <si>
-    <t>한웅진</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:35:21</t>
-  </si>
-  <si>
-    <t>쓸말이 없어서 무리수좀 두었습니다 죄송합니다 강의는 추천합니다.</t>
-  </si>
-  <si>
-    <t>자바 꼭 자바!</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:42:00</t>
-  </si>
-  <si>
-    <t>파이썬의 전문가이십니다. 꼭들으세요</t>
-  </si>
-  <si>
-    <t>인생파이썬강의 입니다.</t>
-  </si>
-  <si>
-    <t>2020/11/25 23:42:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자바 잘가르키십니다 </t>
-  </si>
-  <si>
-    <t>취업하려면 자바도 해야겠죠..?</t>
+    <t>user2 ranysoda</t>
   </si>
 </sst>
 </file>
@@ -199,9 +203,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -269,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +348,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +400,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,14 +596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -604,10 +642,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -616,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -636,13 +674,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -651,19 +689,19 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -671,13 +709,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -686,30 +724,30 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -718,33 +756,33 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -753,16 +791,16 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -770,13 +808,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -785,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -802,13 +840,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -817,16 +855,16 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -837,10 +875,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -849,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -869,36 +907,35 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>